--- a/missionplanner_scenario/real_test_data/road_id1_data.xlsx
+++ b/missionplanner_scenario/real_test_data/road_id1_data.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlgns\Desktop\DBASEV\missionplanner_scenario\real_test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31807CCF-01B9-4832-95CC-FEB1200DA29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6058E884-07A7-499C-A7BC-FBD8FE855DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA4BC626-6348-477A-9FBB-94580585B8F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet1 (4)" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet1 (5)" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1 (6)" sheetId="12" r:id="rId6"/>
+    <sheet name="Sheet1 (7)" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
   <si>
     <t>road_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7D2F02-ED6A-4CFD-B355-3AF728B18BD6}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -466,7 +472,7 @@
         <v>128.1040969</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -483,7 +489,7 @@
         <v>128.1041161</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -500,7 +506,7 @@
         <v>128.10413579999999</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -517,7 +523,7 @@
         <v>128.10415499999999</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -534,7 +540,7 @@
         <v>128.10417440000001</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -551,7 +557,7 @@
         <v>128.10419379999999</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -568,7 +574,7 @@
         <v>128.1042133</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -585,7 +591,7 @@
         <v>128.1042324</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -602,7 +608,7 @@
         <v>128.10425290000001</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -619,7 +625,7 @@
         <v>128.1042726</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -636,7 +642,7 @@
         <v>128.10429110000001</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -653,7 +659,7 @@
         <v>128.10430980000001</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -670,7 +676,7 @@
         <v>128.10433029999999</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -687,7 +693,7 @@
         <v>128.10434839999999</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -704,7 +710,7 @@
         <v>128.1043689</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -721,7 +727,7 @@
         <v>128.10438880000001</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -738,7 +744,7 @@
         <v>128.10440840000001</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -755,7 +761,7 @@
         <v>128.10442620000001</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -772,7 +778,7 @@
         <v>128.10444659999999</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -789,7 +795,7 @@
         <v>128.10446580000001</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
@@ -806,7 +812,7 @@
         <v>128.1044852</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -823,7 +829,7 @@
         <v>128.10450499999999</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -840,7 +846,7 @@
         <v>128.10452409999999</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -857,7 +863,7 @@
         <v>128.10454319999999</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -874,7 +880,7 @@
         <v>128.1045633</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
@@ -891,7 +897,7 @@
         <v>128.1045824</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -911,6 +917,1725 @@
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B880D3-C410-4C4F-BAE4-6568C635C27B}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35.154352799999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>128.1045948</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35.154310899999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>128.10461359999999</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35.154268999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>128.1046327</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35.154226700000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>128.10465249999999</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35.154184800000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>128.1046719</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>35.154142299999997</v>
+      </c>
+      <c r="D7" s="1">
+        <v>128.1046911</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>35.154113500000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>128.10470380000001</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940A54AC-9684-445E-B742-4E42174F33F1}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35.154384100000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>128.10461559999999</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35.154395600000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>128.10466880000001</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35.1544071</v>
+      </c>
+      <c r="D4" s="1">
+        <v>128.10472189999999</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35.1544186</v>
+      </c>
+      <c r="D5" s="1">
+        <v>128.10477510000001</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35.154430099999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>128.10482819999999</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45866E1E-61DD-4122-9CD7-5C064C98BFBF}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35.154370399999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>128.10455060000001</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35.154359100000001</v>
+      </c>
+      <c r="D3" s="1">
+        <v>128.1044976</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35.154348200000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>128.10444430000001</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35.154336700000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>128.10439070000001</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35.154325700000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>128.1043377</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>35.154314200000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>128.10428400000001</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>35.154303200000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>128.10423109999999</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>35.154291399999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>128.1041778</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27991C6B-250E-4DA9-8277-BC17B6468082}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35.154460800000003</v>
+      </c>
+      <c r="D2" s="1">
+        <v>128.10485</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35.154501099999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>128.10482540000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35.154541299999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>128.1048007</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35.1545816</v>
+      </c>
+      <c r="D5" s="1">
+        <v>128.10477610000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35.154621800000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>128.1047514</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>35.154662100000003</v>
+      </c>
+      <c r="D7" s="1">
+        <v>128.10472680000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>35.154702299999997</v>
+      </c>
+      <c r="D8" s="1">
+        <v>128.1047021</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>35.154742499999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>128.10467750000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>35.154782699999998</v>
+      </c>
+      <c r="D10" s="1">
+        <v>128.1046528</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>35.154821599999998</v>
+      </c>
+      <c r="D11" s="1">
+        <v>128.104626</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>35.154861099999998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>128.1046005</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>35.154901600000002</v>
+      </c>
+      <c r="D13" s="1">
+        <v>128.10457640000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>35.154942800000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>128.10455089999999</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1">
+        <v>35.154982799999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>128.10452609999999</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1">
+        <v>35.155022799999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>128.10450059999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>35.155065</v>
+      </c>
+      <c r="D17" s="1">
+        <v>128.1044765</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1">
+        <v>35.1551045</v>
+      </c>
+      <c r="D18" s="1">
+        <v>128.1044497</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1">
+        <v>35.155144499999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>128.1044248</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE0FFAB-3B98-4757-B8B0-96673F3A0769}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35.154451299999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>128.10489889999999</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35.154465600000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>128.10495090000001</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35.154479799999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>128.10500289999999</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D285FB7-40ED-40E7-8884-2C25A8FB2759}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>35.154417500000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>128.10486539999999</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>35.154375899999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>128.10488620000001</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>35.154334200000001</v>
+      </c>
+      <c r="D4" s="1">
+        <v>128.104907</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>35.154292599999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>128.10492780000001</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>35.154250900000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>128.1049486</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.4">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.4">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
